--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -1,25 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC373FDA-C108-604E-885F-D49C2883BDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Game Skills" sheetId="1" r:id="rId4"/>
+    <sheet name="Game Skills" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -56,80 +75,75 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Helps in Determining the accuracy of your attack. a sd ad as dsa asdasdas adsadasdasd</t>
+    <t>Helps in Determining the accuracy of your attack. When attacking enemies, your accuracy skill level * half your dex added to your base stat is the determining factor against their base stat, half their dex and their accuracy skill level %. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Dodge</t>
   </si>
   <si>
-    <t>Helps in Determining if you can dodge the attack.</t>
+    <t>When it comes to attacking, there are two phases. One where you are the attacker - the first, and the second, where you are the defender. We use half your dexterity, plus your base state * the percentage of this skill to determine if the enemy can hit you or if you dodge. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Looting</t>
   </si>
   <si>
-    <t>Determines if you get an item or not per fight.</t>
+    <t>This skill helps you get more loot. More gold rushes. The higher the percentage, the higher the chance to get an item. This skill also applies towards quest items that drops off monsters and is amplified by the item drop % boost from adventures. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Weapon Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting weapons.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Weapon. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Armour Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting armour.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Armour. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Spell Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting spells.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Spells. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Ring Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting rings.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Rings. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Artifact Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting artifact.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Artifacts. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Enchanting</t>
   </si>
   <si>
-    <t>A skill used in enchanting items.</t>
-  </si>
-  <si>
-    <t>Fighters Courage</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Move With grace</t>
-  </si>
-  <si>
-    <t>Let the winds guide you as time is on your side. moving, direction buttons only, on the map will be sped up over time as you train this skill. Train by fighting monsters. Maximum percent with out affixes is 20%.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and click enchant. As you create this skill will level, over time you will be able to enchant more items, that will cost even more money. Enchanting is easy, you select the item, the prefix and/or the suffix. You need two things to enchant: Luck and Intelligence. Much like crafting, enchanting is very much RNG. Expensive items you bought or crafted can shatter in the blink of an eye. Suffixes usually give stat bonuses, while prefixes give all around bonuses to stats. Some prefixes give bonuses to skills as well. Affixes are unlocked as you level, consult the help documentation under enchanting to see the table which describes the enchants and their level requirements.</t>
+  </si>
+  <si>
+    <t>Fighters Resilience</t>
+  </si>
+  <si>
+    <t>The attack timer is 10 seconds by default, how ever with this skill, you can shave off - at max level roughly 20% of those 10 seconds, letting you click more. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,28 +154,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -451,33 +474,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="249" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="930" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,329 +534,359 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>100</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>999</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>100</v>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>999</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>100</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>999</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>400</v>
       </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="K5">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
         <v>400</v>
       </c>
-      <c r="D6">
-        <v>0.0</v>
-      </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="K6">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
         <v>400</v>
       </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
         <v>400</v>
       </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
         <v>400</v>
       </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="K9">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>400</v>
       </c>
-      <c r="D10">
-        <v>0.0</v>
-      </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
         <v>999</v>
       </c>
-      <c r="G11">
-        <v>0.0002</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
         <v>999</v>
       </c>
-      <c r="H12">
-        <v>0.0002</v>
-      </c>
-      <c r="J12">
+      <c r="I12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC373FDA-C108-604E-885F-D49C2883BDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Game Skills" sheetId="1" r:id="rId1"/>
+    <sheet name="Game Skills" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -136,14 +120,32 @@
   </si>
   <si>
     <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
+  </si>
+  <si>
+    <t>Essence of Speed</t>
+  </si>
+  <si>
+    <t>This skill is trained by you fighting monsters. Over time, this skill will give you roughly 20% off the movement timer for movement based actions such as Teleport (including to your kingdom) and Set Sail</t>
+  </si>
+  <si>
+    <t>Disenchanting</t>
+  </si>
+  <si>
+    <t>This skill cannot be trained by fighting, and there is no button in the action section. Instead, when an item drops in chat, you'll have the option to "disenchant" the item. Or when you select items from your inventory, only those with affixes - when you click disenchant - will be destroyed and you will gain both XP and Gold Dust.
+There is a chance for this skill to fail, resulting in no XP and 1 Gold Dust. You can in stead choose to destroy items, which can only be done via the character sheet - which will provide less gold dust (1-25 per enchanted item). Where as this skill will give you between 1-150 Gold Dust.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -154,37 +156,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -474,30 +470,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="930" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="930" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -552,19 +552,19 @@
         <v>999</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -573,10 +573,10 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -590,19 +590,19 @@
         <v>999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -611,10 +611,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -628,28 +628,28 @@
         <v>999</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -663,25 +663,25 @@
         <v>400</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L5">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -695,25 +695,25 @@
         <v>400</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L6">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -727,25 +727,25 @@
         <v>400</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L7">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -759,25 +759,25 @@
         <v>400</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -791,25 +791,25 @@
         <v>400</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L9">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -823,25 +823,25 @@
         <v>400</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L10">
-        <v>2.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -855,16 +855,16 @@
         <v>999</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H11">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -878,15 +878,61 @@
         <v>999</v>
       </c>
       <c r="I12">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>999</v>
+      </c>
+      <c r="I13">
+        <v>0.0002</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
+      </c>
+      <c r="L14">
+        <v>0.001</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -120,19 +117,6 @@
   </si>
   <si>
     <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
-  </si>
-  <si>
-    <t>Essence of Speed</t>
-  </si>
-  <si>
-    <t>This skill is trained by you fighting monsters. Over time, this skill will give you roughly 20% off the movement timer for movement based actions such as Teleport (including to your kingdom) and Set Sail</t>
-  </si>
-  <si>
-    <t>Disenchanting</t>
-  </si>
-  <si>
-    <t>This skill cannot be trained by fighting, and there is no button in the action section. Instead, when an item drops in chat, you'll have the option to "disenchant" the item. Or when you select items from your inventory, only those with affixes - when you click disenchant - will be destroyed and you will gain both XP and Gold Dust.
-There is a chance for this skill to fail, resulting in no XP and 1 Gold Dust. You can in stead choose to destroy items, which can only be done via the character sheet - which will provide less gold dust (1-25 per enchanted item). Where as this skill will give you between 1-150 Gold Dust.</t>
   </si>
 </sst>
 </file>
@@ -168,12 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,30 +455,29 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="930" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="930" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="25" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,22 +514,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>999</v>
       </c>
       <c r="D2">
-        <v>999</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
         <v>0.0</v>
@@ -564,361 +541,291 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>999</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>999</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>0.0</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-      <c r="I3">
-        <v>0.0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>999</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="K4">
         <v>0.001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="K6">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="K7">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+      <c r="F8">
+        <v>0.0</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+      <c r="K8">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+      <c r="F9">
+        <v>0.0</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+      <c r="K9">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+      <c r="G10">
+        <v>0.0</v>
+      </c>
+      <c r="H10">
+        <v>0.0</v>
+      </c>
+      <c r="K10">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
         <v>999</v>
       </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>0.0</v>
-      </c>
-      <c r="I4">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="G11">
+        <v>0.0002</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>0.0002</v>
+      </c>
+      <c r="J12">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>0.0</v>
-      </c>
-      <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="I5">
-        <v>0.0</v>
-      </c>
-      <c r="L5">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>0.0</v>
-      </c>
-      <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="I6">
-        <v>0.0</v>
-      </c>
-      <c r="L6">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="I7">
-        <v>0.0</v>
-      </c>
-      <c r="L7">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8">
-        <v>0.0</v>
-      </c>
-      <c r="F8">
-        <v>0.0</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-      <c r="I8">
-        <v>0.0</v>
-      </c>
-      <c r="L8">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>400</v>
-      </c>
-      <c r="E9">
-        <v>0.0</v>
-      </c>
-      <c r="F9">
-        <v>0.0</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="I9">
-        <v>0.0</v>
-      </c>
-      <c r="L9">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10">
-        <v>0.0</v>
-      </c>
-      <c r="F10">
-        <v>0.0</v>
-      </c>
-      <c r="G10">
-        <v>0.0</v>
-      </c>
-      <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="I10">
-        <v>0.0</v>
-      </c>
-      <c r="L10">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>999</v>
-      </c>
-      <c r="E11">
-        <v>0.0</v>
-      </c>
-      <c r="H11">
-        <v>0.0002</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>999</v>
-      </c>
-      <c r="I12">
-        <v>0.0002</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>999</v>
-      </c>
-      <c r="I13">
-        <v>0.0002</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>999</v>
-      </c>
-      <c r="L14">
-        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -117,6 +120,19 @@
   </si>
   <si>
     <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Alchemy is a skill that is used by you crafting new and magical items that can do one of two things: Devastating damage to kingdoms, or give you boons that can stack and last for a set number of hours.</t>
+  </si>
+  <si>
+    <t>Disenchanting</t>
+  </si>
+  <si>
+    <t>This is used by you disenchanting items that either popup in chat as drops or in your inventory by clicking Disenchant All.
+Should you fail to disenchant an item, you'll only get 1 Gold Dust. Should you succeed you can get between 1 and 150 Gold Dust, where as destroying only gets you 1-25 gold dust and no disenchanting experience.</t>
   </si>
 </sst>
 </file>
@@ -152,9 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,29 +474,30 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="930" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="930" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,20 +534,23 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>999</v>
       </c>
-      <c r="D2">
-        <v>0.0</v>
-      </c>
       <c r="E2">
         <v>0.0</v>
       </c>
@@ -541,28 +564,31 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.001</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
         <v>999</v>
       </c>
-      <c r="D3">
-        <v>0.0</v>
-      </c>
       <c r="E3">
         <v>0.0</v>
       </c>
@@ -576,28 +602,31 @@
         <v>0.0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.001</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>999</v>
       </c>
-      <c r="D4">
-        <v>0.0</v>
-      </c>
       <c r="E4">
         <v>0.0</v>
       </c>
@@ -610,26 +639,29 @@
       <c r="H4">
         <v>0.0</v>
       </c>
-      <c r="J4">
-        <v>1</v>
+      <c r="I4">
+        <v>0.0</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.001</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
         <v>400</v>
       </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
       <c r="E5">
         <v>0.0</v>
       </c>
@@ -642,23 +674,26 @@
       <c r="H5">
         <v>0.0</v>
       </c>
-      <c r="K5">
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="L5">
         <v>0.0025</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
         <v>400</v>
       </c>
-      <c r="D6">
-        <v>0.0</v>
-      </c>
       <c r="E6">
         <v>0.0</v>
       </c>
@@ -671,23 +706,26 @@
       <c r="H6">
         <v>0.0</v>
       </c>
-      <c r="K6">
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="L6">
         <v>0.0025</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
         <v>400</v>
       </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
       <c r="E7">
         <v>0.0</v>
       </c>
@@ -700,23 +738,26 @@
       <c r="H7">
         <v>0.0</v>
       </c>
-      <c r="K7">
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="L7">
         <v>0.0025</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
         <v>400</v>
       </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
       <c r="E8">
         <v>0.0</v>
       </c>
@@ -729,23 +770,26 @@
       <c r="H8">
         <v>0.0</v>
       </c>
-      <c r="K8">
+      <c r="I8">
+        <v>0.0</v>
+      </c>
+      <c r="L8">
         <v>0.0025</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
         <v>400</v>
       </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
       <c r="E9">
         <v>0.0</v>
       </c>
@@ -758,23 +802,26 @@
       <c r="H9">
         <v>0.0</v>
       </c>
-      <c r="K9">
+      <c r="I9">
+        <v>0.0</v>
+      </c>
+      <c r="L9">
         <v>0.0025</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>400</v>
       </c>
-      <c r="D10">
-        <v>0.0</v>
-      </c>
       <c r="E10">
         <v>0.0</v>
       </c>
@@ -787,45 +834,88 @@
       <c r="H10">
         <v>0.0</v>
       </c>
-      <c r="K10">
+      <c r="I10">
+        <v>0.0</v>
+      </c>
+      <c r="L10">
         <v>0.0025</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
         <v>999</v>
       </c>
-      <c r="D11">
-        <v>0.0</v>
-      </c>
-      <c r="G11">
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+      <c r="H11">
         <v>0.0002</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
         <v>999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.0002</v>
       </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="L13">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
+      </c>
+      <c r="L14">
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -59,80 +56,67 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Helps in Determining the accuracy of your attack. When attacking enemies, your accuracy skill level * half your dex added to your base stat is the determining factor against their base stat, half their dex and their accuracy skill level %. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
+    <t>Helps in Determining the accuracy of your attack. a sd ad as dsa asdasdas adsadasdasd</t>
   </si>
   <si>
     <t>Dodge</t>
   </si>
   <si>
-    <t>When it comes to attacking, there are two phases. One where you are the attacker - the first, and the second, where you are the defender. We use half your dexterity, plus your base state * the percentage of this skill to determine if the enemy can hit you or if you dodge. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
+    <t>Helps in Determining if you can dodge the attack.</t>
   </si>
   <si>
     <t>Looting</t>
   </si>
   <si>
-    <t>This skill helps you get more loot. More gold rushes. The higher the percentage, the higher the chance to get an item. This skill also applies towards quest items that drops off monsters and is amplified by the item drop % boost from adventures. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
+    <t>Determines if you get an item or not per fight.</t>
   </si>
   <si>
     <t>Weapon Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Weapon. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting weapons.</t>
   </si>
   <si>
     <t>Armour Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Armour. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting armour.</t>
   </si>
   <si>
     <t>Spell Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Spells. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting spells.</t>
   </si>
   <si>
     <t>Ring Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Rings. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting rings.</t>
   </si>
   <si>
     <t>Artifact Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Artifacts. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting artifact.</t>
   </si>
   <si>
     <t>Enchanting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and click enchant. As you create this skill will level, over time you will be able to enchant more items, that will cost even more money. Enchanting is easy, you select the item, the prefix and/or the suffix. You need two things to enchant: Luck and Intelligence. Much like crafting, enchanting is very much RNG. Expensive items you bought or crafted can shatter in the blink of an eye. Suffixes usually give stat bonuses, while prefixes give all around bonuses to stats. Some prefixes give bonuses to skills as well. Affixes are unlocked as you level, consult the help documentation under enchanting to see the table which describes the enchants and their level requirements.</t>
-  </si>
-  <si>
-    <t>Fighters Resilience</t>
-  </si>
-  <si>
-    <t>The attack timer is 10 seconds by default, how ever with this skill, you can shave off - at max level roughly 20% of those 10 seconds, letting you click more. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters.</t>
-  </si>
-  <si>
-    <t>Quick Feet</t>
-  </si>
-  <si>
-    <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
-  </si>
-  <si>
-    <t>Alchemy</t>
-  </si>
-  <si>
-    <t>Alchemy is a skill that is used by you crafting new and magical items that can do one of two things: Devastating damage to kingdoms, or give you boons that can stack and last for a set number of hours.</t>
-  </si>
-  <si>
-    <t>Disenchanting</t>
-  </si>
-  <si>
-    <t>This is used by you disenchanting items that either popup in chat as drops or in your inventory by clicking Disenchant All.
-Should you fail to disenchant an item, you'll only get 1 Gold Dust. Should you succeed you can get between 1 and 150 Gold Dust, where as destroying only gets you 1-25 gold dust and no disenchanting experience.</t>
+    <t>A skill used in enchanting items.</t>
+  </si>
+  <si>
+    <t>Fighters Courage</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Move With grace</t>
+  </si>
+  <si>
+    <t>Let the winds guide you as time is on your side. moving, direction buttons only, on the map will be sped up over time as you train this skill. Train by fighting monsters. Maximum percent with out affixes is 20%.</t>
   </si>
 </sst>
 </file>
@@ -168,12 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,30 +455,29 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="930" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="249" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="25" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,22 +514,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2">
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>999</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
         <v>0.0</v>
@@ -564,358 +541,288 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>999</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>0.0</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-      <c r="I3">
-        <v>0.0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="L3">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="K4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="K6">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="K7">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+      <c r="F8">
+        <v>0.0</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+      <c r="K8">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+      <c r="F9">
+        <v>0.0</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+      <c r="K9">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+      <c r="G10">
+        <v>0.0</v>
+      </c>
+      <c r="H10">
+        <v>0.0</v>
+      </c>
+      <c r="K10">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
         <v>999</v>
       </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>0.0</v>
-      </c>
-      <c r="I4">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
+      <c r="G11">
+        <v>0.0002</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>0.0002</v>
+      </c>
+      <c r="J12">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>0.0</v>
-      </c>
-      <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="I5">
-        <v>0.0</v>
-      </c>
-      <c r="L5">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>0.0</v>
-      </c>
-      <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="I6">
-        <v>0.0</v>
-      </c>
-      <c r="L6">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="I7">
-        <v>0.0</v>
-      </c>
-      <c r="L7">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8">
-        <v>0.0</v>
-      </c>
-      <c r="F8">
-        <v>0.0</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-      <c r="I8">
-        <v>0.0</v>
-      </c>
-      <c r="L8">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>400</v>
-      </c>
-      <c r="E9">
-        <v>0.0</v>
-      </c>
-      <c r="F9">
-        <v>0.0</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="I9">
-        <v>0.0</v>
-      </c>
-      <c r="L9">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10">
-        <v>0.0</v>
-      </c>
-      <c r="F10">
-        <v>0.0</v>
-      </c>
-      <c r="G10">
-        <v>0.0</v>
-      </c>
-      <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="I10">
-        <v>0.0</v>
-      </c>
-      <c r="L10">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11">
-        <v>999</v>
-      </c>
-      <c r="E11">
-        <v>0.0</v>
-      </c>
-      <c r="H11">
-        <v>0.0002</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>999</v>
-      </c>
-      <c r="I12">
-        <v>0.0002</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>400</v>
-      </c>
-      <c r="L13">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>999</v>
-      </c>
-      <c r="L14">
-        <v>0.001</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -53,70 +56,86 @@
     <t>specifically_assigned</t>
   </si>
   <si>
+    <t>is_locked</t>
+  </si>
+  <si>
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Helps in Determining the accuracy of your attack. a sd ad as dsa asdasdas adsadasdasd</t>
+    <t>Helps in Determining the accuracy of your attack. When attacking enemies, your accuracy skill level * half your dex added to your base stat is the determining factor against their base stat, half their dex and their accuracy skill level %. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Dodge</t>
   </si>
   <si>
-    <t>Helps in Determining if you can dodge the attack.</t>
+    <t>When it comes to attacking, there are two phases. One where you are the attacker - the first, and the second, where you are the defender. We use half your dexterity, plus your base state * the percentage of this skill to determine if the enemy can hit you or if you dodge. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Looting</t>
   </si>
   <si>
-    <t>Determines if you get an item or not per fight.</t>
+    <t>This skill helps you get more loot. More gold rushes. The higher the percentage, the higher the chance to get an item. This skill also applies towards quest items that drops off monsters and is amplified by the item drop % boost from adventures. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Weapon Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting weapons.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Weapon. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Armour Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting armour.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Armour. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Spell Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting spells.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Spells. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Ring Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting rings.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Rings. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Artifact Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting artifact.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Artifacts. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Enchanting</t>
   </si>
   <si>
-    <t>A skill used in enchanting items.</t>
-  </si>
-  <si>
-    <t>Fighters Courage</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Move With grace</t>
-  </si>
-  <si>
-    <t>Let the winds guide you as time is on your side. moving, direction buttons only, on the map will be sped up over time as you train this skill. Train by fighting monsters. Maximum percent with out affixes is 20%.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and click enchant. As you create this skill will level, over time you will be able to enchant more items, that will cost even more money. Enchanting is easy, you select the item, the prefix and/or the suffix. You need two things to enchant: Luck and Intelligence. Much like crafting, enchanting is very much RNG. Expensive items you bought or crafted can shatter in the blink of an eye. Suffixes usually give stat bonuses, while prefixes give all around bonuses to stats. Some prefixes give bonuses to skills as well. Affixes are unlocked as you level, consult the help documentation under enchanting to see the table which describes the enchants and their level requirements.</t>
+  </si>
+  <si>
+    <t>Fighters Resilience</t>
+  </si>
+  <si>
+    <t>The attack timer is 10 seconds by default, how ever with this skill, you can shave off - at max level roughly 20% of those 10 seconds, letting you click more. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Alchemy is a skill that is used by you crafting new and magical items that can do one of two things: Devastating damage to kingdoms, or give you boons that can stack and last for a set number of hours.</t>
+  </si>
+  <si>
+    <t>Disenchanting</t>
+  </si>
+  <si>
+    <t>This is used by you disenchanting items that either popup in chat as drops or in your inventory by clicking Disenchant All.
+Should you fail to disenchant an item, you'll only get 1 Gold Dust. Should you succeed you can get between 1 and 150 Gold Dust, where as destroying only gets you 1-25 gold dust and no disenchanting experience.</t>
   </si>
 </sst>
 </file>
@@ -152,9 +171,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,29 +477,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="249" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="930" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,19 +538,25 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>0.0</v>
+        <v>999</v>
       </c>
       <c r="E2">
         <v>0.0</v>
@@ -541,27 +571,33 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.001</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>0.0</v>
+        <v>999</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -576,27 +612,33 @@
         <v>0.0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.001</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.0</v>
+        <v>999</v>
       </c>
       <c r="E4">
         <v>0.0</v>
@@ -610,26 +652,32 @@
       <c r="H4">
         <v>0.0</v>
       </c>
-      <c r="J4">
-        <v>1</v>
+      <c r="I4">
+        <v>0.0</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.001</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
         <v>400</v>
       </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
       <c r="E5">
         <v>0.0</v>
       </c>
@@ -642,23 +690,29 @@
       <c r="H5">
         <v>0.0</v>
       </c>
-      <c r="K5">
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="L5">
         <v>0.0025</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
         <v>400</v>
       </c>
-      <c r="D6">
-        <v>0.0</v>
-      </c>
       <c r="E6">
         <v>0.0</v>
       </c>
@@ -671,23 +725,29 @@
       <c r="H6">
         <v>0.0</v>
       </c>
-      <c r="K6">
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="L6">
         <v>0.0025</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
         <v>400</v>
       </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
       <c r="E7">
         <v>0.0</v>
       </c>
@@ -700,23 +760,29 @@
       <c r="H7">
         <v>0.0</v>
       </c>
-      <c r="K7">
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="L7">
         <v>0.0025</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
         <v>400</v>
       </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
       <c r="E8">
         <v>0.0</v>
       </c>
@@ -729,23 +795,29 @@
       <c r="H8">
         <v>0.0</v>
       </c>
-      <c r="K8">
+      <c r="I8">
+        <v>0.0</v>
+      </c>
+      <c r="L8">
         <v>0.0025</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>400</v>
       </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
       <c r="E9">
         <v>0.0</v>
       </c>
@@ -758,23 +830,29 @@
       <c r="H9">
         <v>0.0</v>
       </c>
-      <c r="K9">
+      <c r="I9">
+        <v>0.0</v>
+      </c>
+      <c r="L9">
         <v>0.0025</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
         <v>400</v>
       </c>
-      <c r="D10">
-        <v>0.0</v>
-      </c>
       <c r="E10">
         <v>0.0</v>
       </c>
@@ -787,42 +865,103 @@
       <c r="H10">
         <v>0.0</v>
       </c>
-      <c r="K10">
+      <c r="I10">
+        <v>0.0</v>
+      </c>
+      <c r="L10">
         <v>0.0025</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <v>999</v>
       </c>
-      <c r="G11">
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+      <c r="H11">
         <v>0.0002</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>999</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.0002</v>
       </c>
-      <c r="J12">
-        <v>1</v>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="L13">
+        <v>0.0025</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
+      </c>
+      <c r="L14">
+        <v>0.001</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>specifically_assigned</t>
   </si>
   <si>
-    <t>is_locked</t>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -123,19 +117,6 @@
   </si>
   <si>
     <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
-  </si>
-  <si>
-    <t>Alchemy</t>
-  </si>
-  <si>
-    <t>Alchemy is a skill that is used by you crafting new and magical items that can do one of two things: Devastating damage to kingdoms, or give you boons that can stack and last for a set number of hours.</t>
-  </si>
-  <si>
-    <t>Disenchanting</t>
-  </si>
-  <si>
-    <t>This is used by you disenchanting items that either popup in chat as drops or in your inventory by clicking Disenchant All.
-Should you fail to disenchant an item, you'll only get 1 Gold Dust. Should you succeed you can get between 1 and 150 Gold Dust, where as destroying only gets you 1-25 gold dust and no disenchanting experience.</t>
   </si>
 </sst>
 </file>
@@ -171,12 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,31 +455,29 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="930" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="930" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="25" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -538,25 +514,19 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="C2">
+        <v>999</v>
       </c>
       <c r="D2">
-        <v>999</v>
+        <v>0.0</v>
       </c>
       <c r="E2">
         <v>0.0</v>
@@ -571,397 +541,291 @@
         <v>0.0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>999</v>
+      </c>
+      <c r="D3">
+        <v>0.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.001</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>999</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>0.0</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-      <c r="I3">
-        <v>0.0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>999</v>
+      </c>
+      <c r="D4">
+        <v>0.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="K4">
         <v>0.001</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="D4">
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>0.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>0.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="K6">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>400</v>
+      </c>
+      <c r="D7">
+        <v>0.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="K7">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8">
+        <v>0.0</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+      <c r="F8">
+        <v>0.0</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+      <c r="K8">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9">
+        <v>0.0</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+      <c r="F9">
+        <v>0.0</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+      <c r="K9">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>400</v>
+      </c>
+      <c r="D10">
+        <v>0.0</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+      <c r="G10">
+        <v>0.0</v>
+      </c>
+      <c r="H10">
+        <v>0.0</v>
+      </c>
+      <c r="K10">
+        <v>0.0025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
         <v>999</v>
       </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>0.0</v>
-      </c>
-      <c r="I4">
-        <v>0.0</v>
-      </c>
-      <c r="K4">
+      <c r="D11">
+        <v>0.0</v>
+      </c>
+      <c r="G11">
+        <v>0.0002</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>0.001</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>999</v>
+      </c>
+      <c r="H12">
+        <v>0.0002</v>
+      </c>
+      <c r="J12">
         <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>400</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>0.0</v>
-      </c>
-      <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="I5">
-        <v>0.0</v>
-      </c>
-      <c r="L5">
-        <v>0.0025</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>400</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>0.0</v>
-      </c>
-      <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="I6">
-        <v>0.0</v>
-      </c>
-      <c r="L6">
-        <v>0.0025</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>400</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="I7">
-        <v>0.0</v>
-      </c>
-      <c r="L7">
-        <v>0.0025</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>400</v>
-      </c>
-      <c r="E8">
-        <v>0.0</v>
-      </c>
-      <c r="F8">
-        <v>0.0</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-      <c r="I8">
-        <v>0.0</v>
-      </c>
-      <c r="L8">
-        <v>0.0025</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>400</v>
-      </c>
-      <c r="E9">
-        <v>0.0</v>
-      </c>
-      <c r="F9">
-        <v>0.0</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="I9">
-        <v>0.0</v>
-      </c>
-      <c r="L9">
-        <v>0.0025</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>400</v>
-      </c>
-      <c r="E10">
-        <v>0.0</v>
-      </c>
-      <c r="F10">
-        <v>0.0</v>
-      </c>
-      <c r="G10">
-        <v>0.0</v>
-      </c>
-      <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="I10">
-        <v>0.0</v>
-      </c>
-      <c r="L10">
-        <v>0.0025</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>999</v>
-      </c>
-      <c r="E11">
-        <v>0.0</v>
-      </c>
-      <c r="H11">
-        <v>0.0002</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12">
-        <v>999</v>
-      </c>
-      <c r="I12">
-        <v>0.0002</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>400</v>
-      </c>
-      <c r="L13">
-        <v>0.0025</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14">
-        <v>999</v>
-      </c>
-      <c r="L14">
-        <v>0.001</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -56,67 +56,67 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Helps in Determining the accuracy of your attack. a sd ad as dsa asdasdas adsadasdasd</t>
+    <t>Helps in Determining the accuracy of your attack. When attacking enemies, your accuracy skill level * half your dex added to your base stat is the determining factor against their base stat, half their dex and their accuracy skill level %. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Dodge</t>
   </si>
   <si>
-    <t>Helps in Determining if you can dodge the attack.</t>
+    <t>When it comes to attacking, there are two phases. One where you are the attacker - the first, and the second, where you are the defender. We use half your dexterity, plus your base state * the percentage of this skill to determine if the enemy can hit you or if you dodge. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Looting</t>
   </si>
   <si>
-    <t>Determines if you get an item or not per fight.</t>
+    <t>This skill helps you get more loot. More gold rushes. The higher the percentage, the higher the chance to get an item. This skill also applies towards quest items that drops off monsters and is amplified by the item drop % boost from adventures. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
   </si>
   <si>
     <t>Weapon Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting weapons.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Weapon. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Armour Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting armour.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Armour. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Spell Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting spells.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Spells. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Ring Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting rings.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Rings. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Artifact Crafting</t>
   </si>
   <si>
-    <t>A skill used in crafting artifact.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Artifacts. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
   </si>
   <si>
     <t>Enchanting</t>
   </si>
   <si>
-    <t>A skill used in enchanting items.</t>
-  </si>
-  <si>
-    <t>Fighters Courage</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Move With grace</t>
-  </si>
-  <si>
-    <t>Let the winds guide you as time is on your side. moving, direction buttons only, on the map will be sped up over time as you train this skill. Train by fighting monsters. Maximum percent with out affixes is 20%.</t>
+    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and click enchant. As you create this skill will level, over time you will be able to enchant more items, that will cost even more money. Enchanting is easy, you select the item, the prefix and/or the suffix. You need two things to enchant: Luck and Intelligence. Much like crafting, enchanting is very much RNG. Expensive items you bought or crafted can shatter in the blink of an eye. Suffixes usually give stat bonuses, while prefixes give all around bonuses to stats. Some prefixes give bonuses to skills as well. Affixes are unlocked as you level, consult the help documentation under enchanting to see the table which describes the enchants and their level requirements.</t>
+  </si>
+  <si>
+    <t>Fighters Resilience</t>
+  </si>
+  <si>
+    <t>The attack timer is 10 seconds by default, how ever with this skill, you can shave off - at max level roughly 20% of those 10 seconds, letting you click more. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="249" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="930" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
@@ -523,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D3">
         <v>0.0</v>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -593,7 +593,7 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D4">
         <v>0.0</v>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -800,6 +800,9 @@
       </c>
       <c r="C11">
         <v>999</v>
+      </c>
+      <c r="D11">
+        <v>0.0</v>
       </c>
       <c r="G11">
         <v>0.0002</v>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -53,70 +56,75 @@
     <t>specifically_assigned</t>
   </si>
   <si>
+    <t>is_locked</t>
+  </si>
+  <si>
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Helps in Determining the accuracy of your attack. When attacking enemies, your accuracy skill level * half your dex added to your base stat is the determining factor against their base stat, half their dex and their accuracy skill level %. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
+    <t>Helps in Determining the accuracy of your attack.</t>
   </si>
   <si>
     <t>Dodge</t>
   </si>
   <si>
-    <t>When it comes to attacking, there are two phases. One where you are the attacker - the first, and the second, where you are the defender. We use half your dexterity, plus your base state * the percentage of this skill to determine if the enemy can hit you or if you dodge. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
+    <t>Helps in Determining if you can dodge the attack.</t>
   </si>
   <si>
     <t>Looting</t>
   </si>
   <si>
-    <t>This skill helps you get more loot. More gold rushes. The higher the percentage, the higher the chance to get an item. This skill also applies towards quest items that drops off monsters and is amplified by the item drop % boost from adventures. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters. Some adventures may also give additional bonuses to skills when training them.</t>
+    <t>Determines if you get an item or not per fight.</t>
   </si>
   <si>
     <t>Weapon Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Weapon. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting weapons.</t>
   </si>
   <si>
     <t>Armour Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Armour. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting armour.</t>
   </si>
   <si>
     <t>Spell Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Spells. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting spells.</t>
   </si>
   <si>
     <t>Ring Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Rings. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting rings.</t>
   </si>
   <si>
     <t>Artifact Crafting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and craft Artifacts. As you create this skill will level, over time you will be able to craft more items, that will cost even more money. Crafting is useless without enchanting the item to either equip or sell on the market.</t>
+    <t>A skill used in crafting artifact.</t>
   </si>
   <si>
     <t>Enchanting</t>
   </si>
   <si>
-    <t>You cannot train this skill out right, instead, you can select Crafting, from the crafting/enchanting drop down and click enchant. As you create this skill will level, over time you will be able to enchant more items, that will cost even more money. Enchanting is easy, you select the item, the prefix and/or the suffix. You need two things to enchant: Luck and Intelligence. Much like crafting, enchanting is very much RNG. Expensive items you bought or crafted can shatter in the blink of an eye. Suffixes usually give stat bonuses, while prefixes give all around bonuses to stats. Some prefixes give bonuses to skills as well. Affixes are unlocked as you level, consult the help documentation under enchanting to see the table which describes the enchants and their level requirements.</t>
-  </si>
-  <si>
-    <t>Fighters Resilience</t>
-  </si>
-  <si>
-    <t>The attack timer is 10 seconds by default, how ever with this skill, you can shave off - at max level roughly 20% of those 10 seconds, letting you click more. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters.</t>
-  </si>
-  <si>
-    <t>Quick Feet</t>
-  </si>
-  <si>
-    <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
+    <t>A skill used in enchanting items.</t>
+  </si>
+  <si>
+    <t>Disenchanting</t>
+  </si>
+  <si>
+    <t>To disenchant items, all you have to do is either click disenchant in the chat or disenchant all in the inventory section of your character sheet. This will give you between 1-150 gold dust per item, with a chance of failure and only 1 gold dust.
+Items can also be destroyed, but this gives you little gold dust for enchanted items and no disenchanting xp.</t>
+  </si>
+  <si>
+    <t>Alchemy</t>
+  </si>
+  <si>
+    <t>Alchemy is a skill that has to be unlocked via doing a quest. Alchemy allows you to create special items that are usable. Either to damage kingdoms or give your self a temporary boost.
+These items can be sold on the market. If its a item you can use on your self it will only last for so long. If its a item you can use on a kingdom, when you go to attack said kingdom, you will see an extra step before selecting your kingdoms to use said items.</t>
   </si>
 </sst>
 </file>
@@ -152,9 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,29 +466,31 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="930" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="308" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,317 +527,380 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>0.0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
+        <v>0.0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.01</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
+        <v>0.0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.01</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="L5">
+        <v>0.0025</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>400</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="L6">
+        <v>0.0025</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="L7">
+        <v>0.0025</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+      <c r="F8">
+        <v>0.0</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+      <c r="H8">
+        <v>0.0</v>
+      </c>
+      <c r="I8">
+        <v>0.0</v>
+      </c>
+      <c r="L8">
+        <v>0.0025</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+      <c r="F9">
+        <v>0.0</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
+      </c>
+      <c r="H9">
+        <v>0.0</v>
+      </c>
+      <c r="I9">
+        <v>0.0</v>
+      </c>
+      <c r="L9">
+        <v>0.0025</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="E10">
+        <v>0.0</v>
+      </c>
+      <c r="F10">
+        <v>0.0</v>
+      </c>
+      <c r="G10">
+        <v>0.0</v>
+      </c>
+      <c r="H10">
+        <v>0.0</v>
+      </c>
+      <c r="I10">
+        <v>0.0</v>
+      </c>
+      <c r="L10">
+        <v>0.0025</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
         <v>999</v>
       </c>
-      <c r="D2">
-        <v>0.0</v>
-      </c>
-      <c r="E2">
-        <v>0.0</v>
-      </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
-      <c r="G2">
-        <v>0.0</v>
-      </c>
-      <c r="H2">
-        <v>0.0</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="L11">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>999</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>0.0</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>0.0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>999</v>
-      </c>
-      <c r="D4">
-        <v>0.0</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>0.0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>400</v>
       </c>
-      <c r="D5">
-        <v>0.0</v>
-      </c>
-      <c r="E5">
-        <v>0.0</v>
-      </c>
-      <c r="F5">
-        <v>0.0</v>
-      </c>
-      <c r="G5">
-        <v>0.0</v>
-      </c>
-      <c r="H5">
-        <v>0.0</v>
-      </c>
-      <c r="K5">
+      <c r="L12">
         <v>0.0025</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>400</v>
-      </c>
-      <c r="D6">
-        <v>0.0</v>
-      </c>
-      <c r="E6">
-        <v>0.0</v>
-      </c>
-      <c r="F6">
-        <v>0.0</v>
-      </c>
-      <c r="G6">
-        <v>0.0</v>
-      </c>
-      <c r="H6">
-        <v>0.0</v>
-      </c>
-      <c r="K6">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>400</v>
-      </c>
-      <c r="D7">
-        <v>0.0</v>
-      </c>
-      <c r="E7">
-        <v>0.0</v>
-      </c>
-      <c r="F7">
-        <v>0.0</v>
-      </c>
-      <c r="G7">
-        <v>0.0</v>
-      </c>
-      <c r="H7">
-        <v>0.0</v>
-      </c>
-      <c r="K7">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>400</v>
-      </c>
-      <c r="D8">
-        <v>0.0</v>
-      </c>
-      <c r="E8">
-        <v>0.0</v>
-      </c>
-      <c r="F8">
-        <v>0.0</v>
-      </c>
-      <c r="G8">
-        <v>0.0</v>
-      </c>
-      <c r="H8">
-        <v>0.0</v>
-      </c>
-      <c r="K8">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>400</v>
-      </c>
-      <c r="D9">
-        <v>0.0</v>
-      </c>
-      <c r="E9">
-        <v>0.0</v>
-      </c>
-      <c r="F9">
-        <v>0.0</v>
-      </c>
-      <c r="G9">
-        <v>0.0</v>
-      </c>
-      <c r="H9">
-        <v>0.0</v>
-      </c>
-      <c r="K9">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>400</v>
-      </c>
-      <c r="D10">
-        <v>0.0</v>
-      </c>
-      <c r="E10">
-        <v>0.0</v>
-      </c>
-      <c r="F10">
-        <v>0.0</v>
-      </c>
-      <c r="G10">
-        <v>0.0</v>
-      </c>
-      <c r="H10">
-        <v>0.0</v>
-      </c>
-      <c r="K10">
-        <v>0.0025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>999</v>
-      </c>
-      <c r="D11">
-        <v>0.0</v>
-      </c>
-      <c r="G11">
-        <v>0.0002</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12">
-        <v>999</v>
-      </c>
-      <c r="H12">
-        <v>0.0002</v>
-      </c>
-      <c r="J12">
+      <c r="N12">
         <v>1</v>
       </c>
     </row>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29A45B-1F41-3F45-980F-C39E112D78BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Game Skills" sheetId="1" r:id="rId4"/>
+    <sheet name="Game Skills" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>name</t>
   </si>
@@ -53,7 +69,7 @@
     <t>skill_bonus_per_level</t>
   </si>
   <si>
-    <t>specifically_assigned</t>
+    <t>game_class_id</t>
   </si>
   <si>
     <t>is_locked</t>
@@ -113,31 +129,87 @@
     <t>A skill used in enchanting items.</t>
   </si>
   <si>
+    <t>Astral Magics</t>
+  </si>
+  <si>
+    <t>Increases spell damage over time. The higher the level the more spell damage your magics will do. This skill is only available to heritics.
+This bonus is only applied to your spell's that do damage. If you have none equipped, no bonus will be applied.</t>
+  </si>
+  <si>
+    <t>Heretic</t>
+  </si>
+  <si>
+    <t>Celestial Prayer</t>
+  </si>
+  <si>
+    <t>As you level this skill over time, your healing spells will increase over time doing more and more healing.
+This bonus is only applied as long as you have one healing spell equipped.</t>
+  </si>
+  <si>
+    <t>Prophet</t>
+  </si>
+  <si>
+    <t>Soldiers Strength</t>
+  </si>
+  <si>
+    <t>This skill is only applied to fighters. Training this skill will increase your attack and defence as long as you have either a shield (for the defence bonus) or a weapon (for the attack bonus) having both will give you both bonuses, have a weapon (and no shield) or dual wielding, will only give you attack bonus.
+Having double shields will only give you the defence bonus. Having double of either will not mean you get double the bonus, you will only receive the skill bonus(es) once for either type.</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <t>Shadow Dance</t>
+  </si>
+  <si>
+    <t>This skill is only applied to thieves and requires the thief to be dual wielding weapons to apply it's bonus. While one might assume thieves are only great with daggers and bows, in this world - a thief can duel wield any set of weapons.
+While duel wielding, this skill will increase your damage over time.
+This will also decrease attack time by ~5% at max level.</t>
+  </si>
+  <si>
+    <t>Thief</t>
+  </si>
+  <si>
+    <t>Blood Lust</t>
+  </si>
+  <si>
+    <t>Only applies to vampires. Unlike other class specific skills vampires do not need any specific equipment for these bonuses to apply to their damage and their healing modifiers.</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Natures Insight</t>
+  </si>
+  <si>
+    <t>This skill is only used by rangers. Increasing this skill will apply to attack and fight time out (~5% bonus at max level). Similar to thieves with the exception that these bonuses will only apply if you have a bow equipped.</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
     <t>Disenchanting</t>
   </si>
   <si>
-    <t>To disenchant items, all you have to do is either click disenchant in the chat or disenchant all in the inventory section of your character sheet. This will give you between 1-150 gold dust per item, with a chance of failure and only 1 gold dust.
-Items can also be destroyed, but this gives you little gold dust for enchanted items and no disenchanting xp.</t>
+    <t>Allows you to click disenchant to destroy items and get gold dust. The higher the level the more successful at getting the gold dust.
+Destroying items only gets you between 1-25 Gold Dust, guaranteed, while disenchanting can get you between 1-150 or 1 (Gold Dust) if you fail to disenchant.
+Gold dust is used for crafting special items with Alchemy and for conjuring celestial entities.</t>
   </si>
   <si>
     <t>Alchemy</t>
   </si>
   <si>
-    <t>Alchemy is a skill that has to be unlocked via doing a quest. Alchemy allows you to create special items that are usable. Either to damage kingdoms or give your self a temporary boost.
-These items can be sold on the market. If its a item you can use on your self it will only last for so long. If its a item you can use on a kingdom, when you go to attack said kingdom, you will see an extra step before selecting your kingdoms to use said items.</t>
+    <t>Alchemy is a skill that is locked behind a quest. Once unlocked you can click Craft/Enchant to then click a new option called: Alchemy.
+Alchemy requires the use of both Gold Dust (you get from disenchanting and destroying) and Shards (you get from killing (you have to be the one that kills) Celestial Entities). Once you have enough you can start crafting items that either give you limited time boons or items that do damage to kingdoms (which you can only use when attacking a kingdom).
+Boons can be used from your inventory. You can use a maximum of ten boon at one time.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -148,31 +220,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -462,35 +543,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="308" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="417" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -545,22 +623,22 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -569,13 +647,13 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -586,22 +664,22 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -610,13 +688,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -627,34 +705,34 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -668,28 +746,28 @@
         <v>400</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -703,28 +781,28 @@
         <v>400</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -738,28 +816,28 @@
         <v>400</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -773,28 +851,28 @@
         <v>400</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -808,28 +886,28 @@
         <v>400</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -843,33 +921,33 @@
         <v>400</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -877,45 +955,207 @@
       <c r="D11">
         <v>999</v>
       </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="L11">
-        <v>0.001</v>
+        <v>1E-3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>999</v>
+      </c>
+      <c r="F12">
+        <v>1E-3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1E-3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>999</v>
+      </c>
+      <c r="E13">
+        <v>1E-3</v>
+      </c>
+      <c r="G13">
+        <v>1E-3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>999</v>
+      </c>
+      <c r="E14">
+        <v>1E-3</v>
+      </c>
+      <c r="H14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>999</v>
+      </c>
+      <c r="E15">
+        <v>1E-3</v>
+      </c>
+      <c r="F15">
+        <v>1E-3</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>999</v>
+      </c>
+      <c r="E16">
+        <v>1E-3</v>
+      </c>
+      <c r="H16">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>999</v>
+      </c>
+      <c r="L17">
+        <v>1E-3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12">
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
         <v>400</v>
       </c>
-      <c r="L12">
-        <v>0.0025</v>
-      </c>
-      <c r="N12">
+      <c r="L18">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="N18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/1.1.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C29A45B-1F41-3F45-980F-C39E112D78BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C32B77B-0257-4143-8CBD-6AFEDAD9E457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -202,6 +202,18 @@
     <t>Alchemy is a skill that is locked behind a quest. Once unlocked you can click Craft/Enchant to then click a new option called: Alchemy.
 Alchemy requires the use of both Gold Dust (you get from disenchanting and destroying) and Shards (you get from killing (you have to be the one that kills) Celestial Entities). Once you have enough you can start crafting items that either give you limited time boons or items that do damage to kingdoms (which you can only use when attacking a kingdom).
 Boons can be used from your inventory. You can use a maximum of ten boon at one time.</t>
+  </si>
+  <si>
+    <t>Fighters Resilience</t>
+  </si>
+  <si>
+    <t>The attack timer is 10 seconds by default, how ever with this skill, you can shave off - at max level roughly 20% of those 10 seconds, letting you click more. You level this skill via fighting monsters. Click train on the character sheet and assign some xp, the xp you assign is what you will sacrifice from killing monsters. The higher the percentage, the less xp you get towards leveling when fighting monsters.</t>
+  </si>
+  <si>
+    <t>Quick Feet</t>
+  </si>
+  <si>
+    <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
   </si>
 </sst>
 </file>
@@ -544,17 +556,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="417" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="544" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
@@ -955,11 +967,11 @@
       <c r="D11">
         <v>999</v>
       </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
       <c r="K11">
         <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1E-3</v>
       </c>
       <c r="M11" t="s">
         <v>34</v>
@@ -981,14 +993,14 @@
       <c r="D12">
         <v>999</v>
       </c>
+      <c r="E12">
+        <v>1E-3</v>
+      </c>
       <c r="F12">
         <v>1E-3</v>
       </c>
       <c r="K12">
         <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1E-3</v>
       </c>
       <c r="M12" t="s">
         <v>37</v>
@@ -1043,7 +1055,7 @@
         <v>1E-3</v>
       </c>
       <c r="H14">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1101,7 +1113,7 @@
         <v>1E-3</v>
       </c>
       <c r="H16">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1130,7 +1142,7 @@
         <v>1E-3</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="80" x14ac:dyDescent="0.2">
@@ -1151,6 +1163,52 @@
       </c>
       <c r="N18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>999</v>
+      </c>
+      <c r="H19">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>999</v>
+      </c>
+      <c r="I20">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/1.1.0/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C32B77B-0257-4143-8CBD-6AFEDAD9E457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Game Skills" sheetId="1" r:id="rId1"/>
+    <sheet name="Game Skills" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -219,9 +203,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -232,40 +221,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -555,32 +535,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="544" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="544" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -659,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -700,13 +683,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -738,13 +721,13 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -773,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -808,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -843,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -878,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -913,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -948,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -968,7 +951,7 @@
         <v>999</v>
       </c>
       <c r="E11">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -980,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -994,10 +977,10 @@
         <v>999</v>
       </c>
       <c r="E12">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="F12">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1009,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1023,10 +1006,10 @@
         <v>999</v>
       </c>
       <c r="E13">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="G13">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1038,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1052,10 +1035,10 @@
         <v>999</v>
       </c>
       <c r="E14">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="H14">
-        <v>5.0000000000000002E-5</v>
+        <v>5.0E-5</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1067,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1081,10 +1064,10 @@
         <v>999</v>
       </c>
       <c r="E15">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="F15">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1096,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1110,10 +1093,10 @@
         <v>999</v>
       </c>
       <c r="E16">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="H16">
-        <v>4.0000000000000003E-5</v>
+        <v>4.0E-5</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1125,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1139,13 +1122,13 @@
         <v>999</v>
       </c>
       <c r="L17">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1159,13 +1142,13 @@
         <v>400</v>
       </c>
       <c r="L18">
-        <v>2.5000000000000001E-3</v>
+        <v>0.0025</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1179,7 +1162,7 @@
         <v>999</v>
       </c>
       <c r="H19">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1188,12 +1171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>56</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>57</v>
@@ -1202,7 +1185,7 @@
         <v>999</v>
       </c>
       <c r="I20">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1212,8 +1195,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -1,21 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F045CCC-A03C-F24B-9BE5-41F9BB78C6C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Game Skills" sheetId="1" r:id="rId4"/>
+    <sheet name="Game Skills" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -166,9 +182,6 @@
     <t>Natures Insight</t>
   </si>
   <si>
-    <t>This skill is only used by rangers. Increasing this skill will apply to attack and fight time out (~5% bonus at max level). Similar to thieves with the exception that these bonuses will only apply if you have a bow equipped.</t>
-  </si>
-  <si>
     <t>Ranger</t>
   </si>
   <si>
@@ -198,19 +211,17 @@
   </si>
   <si>
     <t>As you move around the map, using directional buttons only (this will not apply to teleporting, setting sail or teleporting to your own kingdom), you will find, as you get higher in level - that the time is reducing. Train this skill by fighting monsters, to do so - click train on the character sheet for this skill and select how much xp you want to sacrifice to train this skill. Special locations with adventures, can have bonuses applied to skill training.</t>
+  </si>
+  <si>
+    <t>This skill is only used by rangers. Increasing this skill will apply to attack and fight time out (~4% bonus at max level). Similar to thieves with the exception that these bonuses will only apply if you have a bow equipped.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -221,31 +232,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -535,35 +555,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="544" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="544" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -642,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -683,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -721,13 +738,13 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -756,13 +773,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -791,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -826,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -861,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -896,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -931,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -951,7 +968,7 @@
         <v>999</v>
       </c>
       <c r="E11">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -963,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -977,10 +994,10 @@
         <v>999</v>
       </c>
       <c r="E12">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="F12">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -992,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1006,10 +1023,10 @@
         <v>999</v>
       </c>
       <c r="E13">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="G13">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1021,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1035,10 +1052,10 @@
         <v>999</v>
       </c>
       <c r="E14">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H14">
-        <v>5.0E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1050,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1064,10 +1081,10 @@
         <v>999</v>
       </c>
       <c r="E15">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="F15">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1079,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1087,82 +1104,82 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>999</v>
       </c>
       <c r="E16">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H16">
-        <v>4.0E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="80" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>49</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>50</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>999</v>
       </c>
       <c r="L17">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>400</v>
       </c>
       <c r="L18">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>999</v>
       </c>
       <c r="H19">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1171,21 +1188,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>999</v>
       </c>
       <c r="I20">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1195,17 +1212,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -187,7 +187,7 @@
     <t>Disenchanting</t>
   </si>
   <si>
-    <t>Allows you to click Disenchant when items drop from fighting monsters, or to click Disenchant all from the inventory screen. Disenchanting gets you between 10 and 100 gold dust per item + the skill bonus %.
+    <t>Allows you to click Disenchant when items drop from fighting monsters, or to click Disenchant all from the inventory screen. Disenchanting gets you between 2 and 10 gold dust per item + the skill bonus %. You will also level enchanting by disenchanting. This will only give you 50% of the enchanting experience with all associated bonuses applied.
 Players can also get gold dust from completing quests and the daily gold dust lotto that can give up to 10k gold dust. How ever your skill applies to neither of these (dailies or quests) in regards to how much gold dust you get.</t>
   </si>
   <si>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -197,6 +197,12 @@
     <t>Alchemy is a skill that is locked behind a quest. Once unlocked you can click Craft/Enchant to then click a new option called: Alchemy.
 Alchemy requires the use of both Gold Dust (you get from disenchanting and destroying) and Shards (you get from killing (you have to be the one that kills) Celestial Entities). Once you have enough you can start crafting items that either give you limited time boons or items that do damage to kingdoms (which you can only use when attacking a kingdom).
 Boons can be used from your inventory. You can use a maximum of ten boon at one time.</t>
+  </si>
+  <si>
+    <t>Casting Accuracy</t>
+  </si>
+  <si>
+    <t>When using any spell - that does damage - this skill will be used to see if your spell hits or fails. The higher the better chance you have to hit your enemy with your spell. Your casting accuracy skill bonus is used to avoid your spells from being evaded. Casters will use 5% of their focus mod + this skill bonus, other classes will just use the skill bonus.</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C20" sqref="C20"/>
@@ -1193,6 +1199,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
+        <v>999</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.001</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>When using any spell - that does damage - this skill will be used to see if your spell hits or fails. The higher the better chance you have to hit your enemy with your spell. Your casting accuracy skill bonus is used to avoid your spells from being evaded. Casters will use 5% of their focus mod + this skill bonus, other classes will just use the skill bonus.</t>
+  </si>
+  <si>
+    <t>Criticality</t>
+  </si>
+  <si>
+    <t>As you level this skill over time the skill bonus will grow to close to 100%. This bonus is used when you attack enemies to determine if you land a critical attack or not. This only applies to spells (healing and damage) and weapons.</t>
   </si>
 </sst>
 </file>
@@ -544,7 +550,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C20" sqref="C20"/>
@@ -1004,6 +1010,9 @@
       <c r="E13">
         <v>0.001</v>
       </c>
+      <c r="H13">
+        <v>0.001</v>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
@@ -1222,6 +1231,29 @@
         <v>0.001</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>999</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.001</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>As you level this skill over time the skill bonus will grow to close to 100%. This bonus is used when you attack enemies to determine if you land a critical attack or not. This only applies to spells (healing and damage) and weapons.</t>
+  </si>
+  <si>
+    <t>Lust for Gold</t>
+  </si>
+  <si>
+    <t>With this skill, the more gold you have in your kingdoms treasury, the more interest you gain per hour. The calculation is Gold + Gold * (Skill Bonus + Keep level / 100). Kingdoms can hold a total of two billion gold, while characters can hold 2 trillion gold.</t>
   </si>
 </sst>
 </file>
@@ -550,7 +556,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C20" sqref="C20"/>
@@ -1257,6 +1263,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>999</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.001</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB42BFD-9217-C34B-89BC-C46A010EE320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Game Skills" sheetId="1" r:id="rId4"/>
+    <sheet name="Game Skills" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -211,23 +228,27 @@
     <t>As you level this skill over time the skill bonus will grow to close to 100%. This bonus is used when you attack enemies to determine if you land a critical attack or not. This only applies to spells (healing and damage) and weapons.</t>
   </si>
   <si>
-    <t>Lust for Gold</t>
+    <t>Kingmanship</t>
   </si>
   <si>
     <t>With this skill, the more gold you have in your kingdoms treasury, the more interest you gain per hour. The calculation is Gold + Gold * (Skill Bonus + Keep level / 100). Kingdoms can hold a total of two billion gold, while characters can hold 2 trillion gold.</t>
+  </si>
+  <si>
+    <t>Hells Anvil</t>
+  </si>
+  <si>
+    <t>This skill only applies to blacksmiths. The more you level this skill the more defence you will get, you can get up to +200% Attack and +300% Defence.</t>
+  </si>
+  <si>
+    <t>Blacksmith</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -238,31 +259,40 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -552,35 +582,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:N23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="5" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="544" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="37" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="32" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="41" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="39" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="544" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -659,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -700,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -738,13 +765,13 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -773,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -808,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -843,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -878,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -913,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -948,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.0025</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -967,8 +994,14 @@
       <c r="D11">
         <v>999</v>
       </c>
+      <c r="E11">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="G11">
+        <v>7.5000000000000002E-4</v>
+      </c>
       <c r="H11">
-        <v>0.0002</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -977,12 +1010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -991,7 +1024,7 @@
         <v>999</v>
       </c>
       <c r="I12">
-        <v>0.0002</v>
+        <v>1E-3</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1000,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1014,10 +1047,10 @@
         <v>999</v>
       </c>
       <c r="E13">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H13">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1029,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1043,10 +1076,10 @@
         <v>999</v>
       </c>
       <c r="E14">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="F14">
-        <v>0.001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1058,7 +1091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1072,10 +1105,10 @@
         <v>999</v>
       </c>
       <c r="E15">
-        <v>0.001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G15">
-        <v>0.001</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1087,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1101,10 +1134,10 @@
         <v>999</v>
       </c>
       <c r="E16">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="H16">
-        <v>5.0E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1116,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1130,10 +1163,10 @@
         <v>999</v>
       </c>
       <c r="E17">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="F17">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1145,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1159,10 +1192,16 @@
         <v>999</v>
       </c>
       <c r="E18">
-        <v>0.001</v>
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="G18">
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="H18">
-        <v>4.0E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1174,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1188,13 +1227,13 @@
         <v>999</v>
       </c>
       <c r="L19">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1205,16 +1244,16 @@
         <v>57</v>
       </c>
       <c r="D20">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L20">
-        <v>0.0025</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1234,13 +1273,13 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1257,13 +1296,13 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1280,24 +1319,47 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>999</v>
+      </c>
+      <c r="E24">
+        <v>1E-3</v>
+      </c>
+      <c r="G24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB42BFD-9217-C34B-89BC-C46A010EE320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48809215-6B24-3242-9F6F-B87386CDE2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Blacksmith</t>
+  </si>
+  <si>
+    <t>Alchemists Concoctions</t>
+  </si>
+  <si>
+    <t>This is a class skill for the Arcane Alchemist which raises damage, healing and fight time out modifiers.</t>
+  </si>
+  <si>
+    <t>Arcane Alchemist</t>
   </si>
 </sst>
 </file>
@@ -583,15 +592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="544" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -1339,7 +1348,7 @@
         <v>999</v>
       </c>
       <c r="E24">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G24">
         <v>3.0000000000000001E-3</v>
@@ -1354,6 +1363,41 @@
         <v>66</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>999</v>
+      </c>
+      <c r="E25">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
     </row>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Used to craft trinkets. You must be able to farm Copper Coins in Purgatory to craft these.</t>
+  </si>
+  <si>
+    <t>Prison Escape</t>
+  </si>
+  <si>
+    <t>Increases damage to 200%, Armour class by 100% fight and move time out by 50% when at max level.</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D19" sqref="D19"/>
@@ -1531,6 +1537,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26">
+        <v>999</v>
+      </c>
+      <c r="F26">
+        <v>0.002</v>
+      </c>
+      <c r="H26">
+        <v>0.001</v>
+      </c>
+      <c r="I26">
+        <v>0.0005</v>
+      </c>
+      <c r="J26">
+        <v>0.0005</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -223,10 +223,10 @@
     <t>Used to craft trinkets. You must be able to farm Copper Coins in Purgatory to craft these.</t>
   </si>
   <si>
-    <t>Prison Escape</t>
-  </si>
-  <si>
-    <t>Increases damage to 200%, Armour class by 100% fight and move time out by 50% when at max level.</t>
+    <t>Alcoholics Drinking Contest</t>
+  </si>
+  <si>
+    <t>Drink up my friend, you are known as the one person who can drink and out drink any other person! Although alcohol does take its toll on you, health wise, mental wise and so on. Alas that is out weighed by the black out rage you get!</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="32" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="5" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="547" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11" bestFit="true" customWidth="true" style="0"/>
@@ -1560,16 +1560,13 @@
         <v>0.001</v>
       </c>
       <c r="I26">
-        <v>0.0005</v>
-      </c>
-      <c r="J26">
-        <v>0.0005</v>
+        <v>0.0003</v>
       </c>
       <c r="O26">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R26">
         <v>0</v>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Drink up my friend, you are known as the one person who can drink and out drink any other person! Although alcohol does take its toll on you, health wise, mental wise and so on. Alas that is out weighed by the black out rage you get!</t>
+  </si>
+  <si>
+    <t>Merchants Coin</t>
+  </si>
+  <si>
+    <t>The one good thing about being a merchant is defending your coin no matter what it takes. The other good thing, is that people you need to fight beside you will help you. Move quicker and fight faster!</t>
   </si>
 </sst>
 </file>
@@ -565,7 +571,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D19" sqref="D19"/>
@@ -1572,6 +1578,79 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>999</v>
+      </c>
+      <c r="F27">
+        <v>0.015</v>
+      </c>
+      <c r="I27">
+        <v>0.03</v>
+      </c>
+      <c r="J27">
+        <v>0.05</v>
+      </c>
+      <c r="K27">
+        <v>0.0001</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28">
+        <v>999</v>
+      </c>
+      <c r="F28">
+        <v>0.00095</v>
+      </c>
+      <c r="I28">
+        <v>0.0003</v>
+      </c>
+      <c r="J28">
+        <v>0.0005</v>
+      </c>
+      <c r="K28">
+        <v>0.0001</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>11</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/data-imports/skills.xlsx
+++ b/resources/data-imports/skills.xlsx
@@ -346,7 +346,7 @@
   <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
